--- a/biology/Botanique/Mikhaïl_Popov/Mikhaïl_Popov.xlsx
+++ b/biology/Botanique/Mikhaïl_Popov/Mikhaïl_Popov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mikha%C3%AFl_Popov</t>
+          <t>Mikhaïl_Popov</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mikhaïl Grigorievitch Popov, né le 5 (17) avril 1893 à Volsk et mort le 18 décembre 1955 à Léningrad, est un botaniste russe soviétique fameux pour ses expéditions scientifiques en Sibérie, dans les Carpathes, au Kazakhstan et en Asie centrale, ainsi que dans l'Extrême-Orient russe dont il rapporta des spécimens botaniques pour le jardin botanique de Sibérie situé à Novossibirsk. Il était spécialisé en phytogéographie et étudia en particulier des plantes de type méditerranéen ou issues de la taïga. Il était membre-correspondant de l'Académie des sciences de la RSS d'Ukraine (1945) et fut lauréat du prix Komarov en 1960 à titre posthume.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mikha%C3%AFl_Popov</t>
+          <t>Mikhaïl_Popov</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mikhaïl Popov enseigne de 1917 à 1927 à l'université de Saratov, puis à l'université de Tachkent (dénommée à l'époque université d'Asie centrale), où il a comme élève Alexeï Vvedenski. De 1927 à 1940, il travaille successivement à l'institut d'agronomie de Léningrad, à la filiale du Kazakhstan de l'Académie des sciences d'URSS, et enfin au jardin botanique de Batoum. Il est nommé ensuite professeur de l'université de Samarcande jusqu'en 1944. L'année suivante, il est professeur de l'université de Kiev et les trois années suivantes professeur de l'université de Lvov. Il dirige de 1948 à 1950 le département de botanique de la filiale de l'Académie des sciences d'URSS de Sakhaline. Ensuite il dirige au département de biologie le laboratoire de flore et de géobotanique au jardin botanique de Sibérie situé à Novossibirsk.
 En 1933 en pleine terreur stalinienne, il est arrêté sous l'accusation de menées anti-soviétiques, mais bientôt relâché par manque de preuves. Il lui est toutefois interdit de demeurer à Moscou ou à Léningrad et part donc pour le Kazakhstan, puis à Batoum.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mikha%C3%AFl_Popov</t>
+          <t>Mikhaïl_Popov</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Campanulaceae) Popoviocodonia Fed. 1957
 (Plumbaginaceae) Popoviolimon Lincz.</t>
